--- a/计划.xlsx
+++ b/计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\leetcodeText400AG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F4B887-5779-4A39-B690-EB22344EB9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3C4466-F6F0-45C6-93AC-EB1FC6CEE8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="3" xr2:uid="{A33674FF-29F1-4FE2-9D92-0383C4332F12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="2" xr2:uid="{A33674FF-29F1-4FE2-9D92-0383C4332F12}"/>
   </bookViews>
   <sheets>
     <sheet name="近半年" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,14 +256,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -335,15 +327,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,16 +366,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -410,26 +396,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,7 +1003,7 @@
   </sheetData>
   <autoFilter ref="A1:A24" xr:uid="{1BA6E5FF-32D3-4E67-8A7B-E46B0993D818}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
-      <sortCondition sortBy="fontColor" ref="A1:A24" dxfId="0"/>
+      <sortCondition sortBy="fontColor" ref="A1:A24" dxfId="1"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
@@ -1309,7 +1286,7 @@
   </sheetData>
   <autoFilter ref="A1:A24" xr:uid="{9396D4D3-31C7-430C-A594-3F0980E14CDB}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
-      <sortCondition sortBy="fontColor" ref="A1:A24" dxfId="1"/>
+      <sortCondition sortBy="fontColor" ref="A1:A24" dxfId="0"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
@@ -1322,76 +1299,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1C5E84-A2BC-4663-861E-A86FBC1CB526}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="A1:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="6.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="8.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="6" customWidth="1"/>
     <col min="10" max="10" width="9" style="6"/>
     <col min="11" max="11" width="13.875" style="6" customWidth="1"/>
     <col min="12" max="12" width="25.5" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="K1" s="19" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="K1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1"/>
-      <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1416,14 +1391,14 @@
       <c r="I3" s="7">
         <v>0.19361702127659575</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="16" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1448,12 +1423,12 @@
       <c r="I4" s="7">
         <v>0.1574468085106383</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1478,12 +1453,12 @@
       <c r="I5" s="7">
         <v>0.10425531914893617</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1508,12 +1483,12 @@
       <c r="I6" s="7">
         <v>9.5744680851063829E-2</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1538,12 +1513,12 @@
       <c r="I7" s="7">
         <v>8.9361702127659579E-2</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1568,12 +1543,12 @@
       <c r="I8" s="7">
         <v>7.8723404255319152E-2</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
@@ -1598,14 +1573,14 @@
       <c r="I9" s="7">
         <v>5.3191489361702128E-2</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1630,12 +1605,12 @@
       <c r="I10" s="7">
         <v>4.4680851063829789E-2</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -1660,12 +1635,12 @@
       <c r="I11" s="7">
         <v>4.2553191489361701E-2</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
@@ -1690,14 +1665,14 @@
       <c r="I12" s="7">
         <v>3.8297872340425532E-2</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
@@ -1722,12 +1697,12 @@
       <c r="I13" s="7">
         <v>2.7659574468085105E-2</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1752,12 +1727,12 @@
       <c r="I14" s="7">
         <v>2.553191489361702E-2</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
@@ -1782,14 +1757,14 @@
       <c r="I15" s="7">
         <v>2.1276595744680851E-2</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="16" t="s">
         <v>35</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -1814,7 +1789,7 @@
       <c r="I16" s="7">
         <v>1.4893617021276596E-2</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="12" t="s">
         <v>19</v>
       </c>
@@ -1844,7 +1819,7 @@
       <c r="I17" s="7">
         <v>1.276595744680851E-2</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="12" t="s">
         <v>13</v>
       </c>
@@ -2016,7 +1991,8 @@
     <mergeCell ref="K1:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2025,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E97EBCF-990B-4D89-9F8E-3CDDF9D420C3}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
@@ -2040,25 +2016,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2075,7 +2051,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
@@ -2084,7 +2060,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2072,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -2105,22 +2081,22 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2128,8 +2104,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2137,8 +2113,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2146,7 +2122,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2160,13 +2136,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
@@ -2178,7 +2154,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -2186,25 +2162,25 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="12" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C1:E2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C1:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
